--- a/biology/Neurosciences/Réflexe_de_sursaut_acoustique/Réflexe_de_sursaut_acoustique.xlsx
+++ b/biology/Neurosciences/Réflexe_de_sursaut_acoustique/Réflexe_de_sursaut_acoustique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_de_sursaut_acoustique</t>
+          <t>Réflexe_de_sursaut_acoustique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réflexe de sursaut acoustique est une réponse défensive aux stimuli sonores brusques ou menaçants[1], et est associée à une incidence négative. 
-Le réflexe de sursaut est une réaction réflexe du tronc cérébral qui sert à protéger l'arrière du cou et les yeux (clignement de paupières). Il facilite la fuite à des stimuli soudains. L'état émotionnel[2] d'une personne peut conduire à une variété de réponses[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe de sursaut acoustique est une réponse défensive aux stimuli sonores brusques ou menaçants, et est associée à une incidence négative. 
+Le réflexe de sursaut est une réaction réflexe du tronc cérébral qui sert à protéger l'arrière du cou et les yeux (clignement de paupières). Il facilite la fuite à des stimuli soudains. L'état émotionnel d'une personne peut conduire à une variété de réponses.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_de_sursaut_acoustique</t>
+          <t>Réflexe_de_sursaut_acoustique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Descriptions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réflexe de sursaut acoustique est généralement causé par un stimulus auditif supérieur à 80 décibels[4] et se produit très rapidement, de l’ordre de 30 ms à 50 ms après le bruit (Lang, Cuthbert, &amp; Bradley, 1990)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe de sursaut acoustique est généralement causé par un stimulus auditif supérieur à 80 décibels et se produit très rapidement, de l’ordre de 30 ms à 50 ms après le bruit (Lang, Cuthbert, &amp; Bradley, 1990).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_de_sursaut_acoustique</t>
+          <t>Réflexe_de_sursaut_acoustique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a beaucoup de voies et de structures cérébrales impliqués dans le réflexe : l'amygdale, l'hippocampe, noyau de la strie terminale et le cortex cingulaire antérieur jouent un rôle dans la modulation de ce réflexe[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a beaucoup de voies et de structures cérébrales impliqués dans le réflexe : l'amygdale, l'hippocampe, noyau de la strie terminale et le cortex cingulaire antérieur jouent un rôle dans la modulation de ce réflexe,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_de_sursaut_acoustique</t>
+          <t>Réflexe_de_sursaut_acoustique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inhibition du réflexe de sursaut (PPI)
-L'Inhibition du réflexe de sursaut est un phénomène neurologique dans laquelle un pré-stimulus plus faibles inhibe la réaction d'un organisme à un stimulus fort. Les stimuli sont généralement acoustique. La réduction de l'amplitude du réflexe de sursaut acoustique reflète la capacité du système nerveux centrale pour s'adapter, temporairement, à un fort stimulus sensoriel quand un signal plus faible le précède et avertit l'organisme. 
+          <t>Inhibition du réflexe de sursaut (PPI)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Inhibition du réflexe de sursaut est un phénomène neurologique dans laquelle un pré-stimulus plus faibles inhibe la réaction d'un organisme à un stimulus fort. Les stimuli sont généralement acoustique. La réduction de l'amplitude du réflexe de sursaut acoustique reflète la capacité du système nerveux centrale pour s'adapter, temporairement, à un fort stimulus sensoriel quand un signal plus faible le précède et avertit l'organisme. 
 Les déficits de l'inhibition du réflexe de sursaut se manifeste dans l'incapacité à filtrer les informations inutiles. Ces déficits sont notés chez les patients souffrant de maladies comme la schizophrénie et la maladie d'Alzheimer, et chez les personnes sous l'influence de drogues.
-Recherche sur l'hyperacousie
-Chez le rat, une injection de 250 mg/kg de salicylate induit une augmentation de l’amplitude du réflexe acoustique de sursaut et particulièrement à 80, 90 et 100 dB SPL (Sun et al., 2009)[8]. Elle est interprétée comme traduisant un comportement lié à de l’hyperacousie. Cette modification du sursaut acoustique permet de mettre au point des modèles animaux pour l'étude de ce trouble auditif[9]. 
-Recherche sur les acouphènes
-Fournier et Hébert (2012) ont montré que l'amplitude du réflexe de sursaut acoustique était généralement plus fort chez les personnes atteintes d'acouphènes[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réflexe_de_sursaut_acoustique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_de_sursaut_acoustique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation en recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recherche sur l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le rat, une injection de 250 mg/kg de salicylate induit une augmentation de l’amplitude du réflexe acoustique de sursaut et particulièrement à 80, 90 et 100 dB SPL (Sun et al., 2009). Elle est interprétée comme traduisant un comportement lié à de l’hyperacousie. Cette modification du sursaut acoustique permet de mettre au point des modèles animaux pour l'étude de ce trouble auditif. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réflexe_de_sursaut_acoustique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_de_sursaut_acoustique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation en recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recherche sur les acouphènes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fournier et Hébert (2012) ont montré que l'amplitude du réflexe de sursaut acoustique était généralement plus fort chez les personnes atteintes d'acouphènes.
 </t>
         </is>
       </c>
